--- a/SMR.Extensions/templates/trainingList.xlsx
+++ b/SMR.Extensions/templates/trainingList.xlsx
@@ -119,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -135,7 +135,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -144,6 +143,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -487,7 +490,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="G2" activeCellId="1" sqref="E1:E1048576 G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -496,9 +499,9 @@
     <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" style="5" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="76.5" customHeight="1">
@@ -514,25 +517,25 @@
     </row>
     <row r="2" spans="1:7" ht="4.5" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="51" customHeight="1" thickTop="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>7</v>
       </c>
     </row>

--- a/SMR.Extensions/templates/trainingList.xlsx
+++ b/SMR.Extensions/templates/trainingList.xlsx
@@ -490,7 +490,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" activeCellId="1" sqref="E1:E1048576 G1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
